--- a/data/OBTN final data by measure.xlsx
+++ b/data/OBTN final data by measure.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkeyes/Google Drive/Work/Projects/TFFF/Projects/OBTN/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{586586EE-4C15-B14B-A37A-C2DB4462BBAD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="19100" windowHeight="15240" tabRatio="859" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="37440" yWindow="480" windowWidth="19100" windowHeight="15240" tabRatio="859" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="30" r:id="rId1"/>
@@ -27,22 +28,23 @@
     <sheet name="4yr Degree or Greater" sheetId="9" r:id="rId13"/>
     <sheet name="2yr Degrees" sheetId="32" r:id="rId14"/>
     <sheet name="Graduation Rate" sheetId="14" r:id="rId15"/>
-    <sheet name="Early Education" sheetId="15" r:id="rId16"/>
-    <sheet name="Unemployment Rate" sheetId="16" r:id="rId17"/>
-    <sheet name="LFPR" sheetId="17" r:id="rId18"/>
-    <sheet name="Job Growth" sheetId="18" r:id="rId19"/>
-    <sheet name="Property Tax per Person" sheetId="23" r:id="rId20"/>
-    <sheet name="Housing Cost Burden" sheetId="11" r:id="rId21"/>
-    <sheet name="Physically Active Adults" sheetId="24" r:id="rId22"/>
-    <sheet name="Adult Smoking" sheetId="20" r:id="rId23"/>
-    <sheet name="Healthy Diet" sheetId="21" r:id="rId24"/>
-    <sheet name="Vaccination Rate 2yr olds" sheetId="29" r:id="rId25"/>
-    <sheet name="Low Weight Births" sheetId="25" r:id="rId26"/>
-    <sheet name="Broadband Access" sheetId="19" r:id="rId27"/>
-    <sheet name="Transit Service" sheetId="22" r:id="rId28"/>
-    <sheet name="Vehicle Miles Traveled" sheetId="31" r:id="rId29"/>
-    <sheet name="Developed or Cultivated Land" sheetId="26" r:id="rId30"/>
-    <sheet name="Mobile Homes" sheetId="8" r:id="rId31"/>
+    <sheet name="Higher ed enrollment" sheetId="34" r:id="rId16"/>
+    <sheet name="Early Education" sheetId="15" r:id="rId17"/>
+    <sheet name="Unemployment Rate" sheetId="16" r:id="rId18"/>
+    <sheet name="LFPR" sheetId="17" r:id="rId19"/>
+    <sheet name="Job Growth" sheetId="18" r:id="rId20"/>
+    <sheet name="Property Tax per Person" sheetId="23" r:id="rId21"/>
+    <sheet name="Housing Cost Burden" sheetId="11" r:id="rId22"/>
+    <sheet name="Physically Active Adults" sheetId="24" r:id="rId23"/>
+    <sheet name="Adult Smoking" sheetId="20" r:id="rId24"/>
+    <sheet name="Healthy Diet" sheetId="21" r:id="rId25"/>
+    <sheet name="Vaccination Rate 2yr olds" sheetId="29" r:id="rId26"/>
+    <sheet name="Low Weight Births" sheetId="25" r:id="rId27"/>
+    <sheet name="Broadband Access" sheetId="19" r:id="rId28"/>
+    <sheet name="Transit Service" sheetId="22" r:id="rId29"/>
+    <sheet name="Vehicle Miles Traveled" sheetId="31" r:id="rId30"/>
+    <sheet name="Developed or Cultivated Land" sheetId="26" r:id="rId31"/>
+    <sheet name="Mobile Homes" sheetId="8" r:id="rId32"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="151">
   <si>
     <t>Labor Force Participation Rate</t>
   </si>
@@ -397,18 +399,130 @@
   <si>
     <t>Malheur</t>
   </si>
+  <si>
+    <t>Enrollment per 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klamath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multnomah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malheur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josephine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deschutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clatsop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umatilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clackamas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tillamook </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lincoln </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crook </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilliam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harney </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hood River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefferson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morrow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheeler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamhill </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0\%"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="0\%"/>
+    <numFmt numFmtId="168" formatCode="0\%"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -514,9 +628,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -537,9 +652,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -549,8 +661,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -560,79 +671,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="149">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="167" formatCode="0.0\%"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFA9D08E"/>
+        </left>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -643,8 +715,27 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -970,7 +1061,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0\%"/>
+      <numFmt numFmtId="168" formatCode="0\%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1234,7 +1325,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1286,7 +1377,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0\%"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1910,6 +2001,71 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2000,7 +2156,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2080,7 +2236,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0\%"/>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2093,41 +2249,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2236,337 +2357,337 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table356" displayName="Table356" ref="A1:C38" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table356" displayName="Table356" ref="A1:C38" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="146"/>
-    <tableColumn id="2" name="County" dataDxfId="145"/>
-    <tableColumn id="3" name="Median Income" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Rank" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="County" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Median Income" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table357910" displayName="Table357910" ref="A1:C40" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table357910" displayName="Table357910" ref="A1:C40" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="108"/>
-    <tableColumn id="2" name="County" dataDxfId="107"/>
-    <tableColumn id="3" name="Index Crime" dataDxfId="106"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Rank" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="County" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Index Crime" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table357813" displayName="Table357813" ref="A1:C38" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table357813" displayName="Table357813" ref="A1:C38" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="103"/>
-    <tableColumn id="2" name="County" dataDxfId="102"/>
-    <tableColumn id="3" name="Voter Participation" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Rank" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="County" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Voter Participation" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table3579" displayName="Table3579" ref="A1:C40" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table3579" displayName="Table3579" ref="A1:C40" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="98"/>
-    <tableColumn id="2" name="County" dataDxfId="97"/>
-    <tableColumn id="3" name="4-year Degree or Greater" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Rank" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="County" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="4-year Degree or Greater" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table357930" displayName="Table357930" ref="A1:C40" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table357930" displayName="Table357930" ref="A1:C40" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="93"/>
-    <tableColumn id="2" name="County" dataDxfId="92"/>
-    <tableColumn id="3" name="2-year Degrees" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Rank" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="County" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="2-year Degrees" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table35781314" displayName="Table35781314" ref="A1:C40" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table35781314" displayName="Table35781314" ref="A1:C40" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="88"/>
-    <tableColumn id="2" name="County" dataDxfId="87"/>
-    <tableColumn id="3" name="Graduation Rate" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Rank" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="County" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Graduation Rate" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table3578131415" displayName="Table3578131415" ref="A1:C40" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table3578131415" displayName="Table3578131415" ref="A1:C40" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="83"/>
-    <tableColumn id="2" name="County" dataDxfId="82"/>
-    <tableColumn id="3" name="Early Education" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Rank" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="County" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Early Education" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table357813141516" displayName="Table357813141516" ref="A1:C38" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table357813141516" displayName="Table357813141516" ref="A1:C38" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="78"/>
-    <tableColumn id="2" name="County" dataDxfId="77"/>
-    <tableColumn id="3" name="Unemployment Rate" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Rank" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="County" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Unemployment Rate" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table35781314151617" displayName="Table35781314151617" ref="A1:C40" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table35781314151617" displayName="Table35781314151617" ref="A1:C40" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="73"/>
-    <tableColumn id="2" name="County" dataDxfId="72"/>
-    <tableColumn id="3" name="Labor Force Participation Rate" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="Rank" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="County" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Labor Force Participation Rate" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table3578131415161718" displayName="Table3578131415161718" ref="A1:C40" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table3578131415161718" displayName="Table3578131415161718" ref="A1:C40" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="68"/>
-    <tableColumn id="2" name="County" dataDxfId="67"/>
-    <tableColumn id="3" name="Job Growth" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Rank" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="County" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Job Growth" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table35781314151617181920212223" displayName="Table35781314151617181920212223" ref="A1:C40" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table35781314151617181920212223" displayName="Table35781314151617181920212223" ref="A1:C40" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="63"/>
-    <tableColumn id="2" name="County" dataDxfId="62"/>
-    <tableColumn id="3" name="Property Tax per Person" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Rank" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="County" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Property Tax per Person" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table357813141516171819202122232731" displayName="Table357813141516171819202122232731" ref="A1:C40" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table357813141516171819202122232731" displayName="Table357813141516171819202122232731" ref="A1:C40" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="141"/>
-    <tableColumn id="2" name="County" dataDxfId="4"/>
-    <tableColumn id="3" name="Land Area" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Rank" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="County" dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Land Area" dataDxfId="139" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table35791011" displayName="Table35791011" ref="A1:C40" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table35791011" displayName="Table35791011" ref="A1:C40" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="58"/>
-    <tableColumn id="2" name="County" dataDxfId="57"/>
-    <tableColumn id="3" name="Housing Cost Burden" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Rank" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="County" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Housing Cost Burden" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table3578131415161718192024" displayName="Table3578131415161718192024" ref="A1:C38" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table3578131415161718192024" displayName="Table3578131415161718192024" ref="A1:C38" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="53"/>
-    <tableColumn id="2" name="County" dataDxfId="52"/>
-    <tableColumn id="3" name="Physically Active Adults (2015)" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Rank" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="County" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Physically Active Adults (2015)" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table35781314151617181920" displayName="Table35781314151617181920" ref="A1:C38" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table35781314151617181920" displayName="Table35781314151617181920" ref="A1:C38" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="48"/>
-    <tableColumn id="2" name="County" dataDxfId="47"/>
-    <tableColumn id="3" name="Adult Smoking (2015)" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Rank" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="County" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Adult Smoking (2015)" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table3578131415161718192021" displayName="Table3578131415161718192021" ref="A1:C38" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table3578131415161718192021" displayName="Table3578131415161718192021" ref="A1:C38" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="43"/>
-    <tableColumn id="2" name="County" dataDxfId="42"/>
-    <tableColumn id="3" name="Healthy Diet (2015)" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Rank" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="County" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Healthy Diet (2015)" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table3578131415161718192021222329" displayName="Table3578131415161718192021222329" ref="A1:C38" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table3578131415161718192021222329" displayName="Table3578131415161718192021222329" ref="A1:C38" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="38"/>
-    <tableColumn id="2" name="County" dataDxfId="37"/>
-    <tableColumn id="3" name="Vaccination Rate, 2-year-olds" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Rank" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="County" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Vaccination Rate, 2-year-olds" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table3578131415161718192021222325" displayName="Table3578131415161718192021222325" ref="A1:C40" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table3578131415161718192021222325" displayName="Table3578131415161718192021222325" ref="A1:C40" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="33"/>
-    <tableColumn id="2" name="County" dataDxfId="32"/>
-    <tableColumn id="3" name="Low Weight Births" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Rank" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="County" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Low Weight Births" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table357813141516171819" displayName="Table357813141516171819" ref="A1:C40" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table357813141516171819" displayName="Table357813141516171819" ref="A1:C40" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="28"/>
-    <tableColumn id="2" name="County" dataDxfId="27"/>
-    <tableColumn id="3" name="Broadband Access" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Rank" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="County" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Broadband Access" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table357813141516171819202122" displayName="Table357813141516171819202122" ref="A1:C38" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table357813141516171819202122" displayName="Table357813141516171819202122" ref="A1:C38" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="23"/>
-    <tableColumn id="2" name="County" dataDxfId="22"/>
-    <tableColumn id="3" name="Transit Service" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Rank" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="County" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="Transit Service" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table35793" displayName="Table35793" ref="A1:C40" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table35793" displayName="Table35793" ref="A1:C40" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="18"/>
-    <tableColumn id="2" name="County" dataDxfId="17"/>
-    <tableColumn id="3" name="Vehicle Miles Traveled" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Rank" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="County" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="Vehicle Miles Traveled" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table357813141516171819202122232526" displayName="Table357813141516171819202122232526" ref="A1:C38" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Table357813141516171819202122232526" displayName="Table357813141516171819202122232526" ref="A1:C38" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="13"/>
-    <tableColumn id="2" name="County" dataDxfId="12"/>
-    <tableColumn id="3" name="Developed or Cultivated Land (2011)" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="Rank" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="County" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="Developed or Cultivated Land (2011)" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table3578131415161718192021222327" displayName="Table3578131415161718192021222327" ref="A1:C40" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3578131415161718192021222327" displayName="Table3578131415161718192021222327" ref="A1:C40" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="138"/>
-    <tableColumn id="2" name="County" dataDxfId="137"/>
-    <tableColumn id="3" name="Publically Owned Lands" dataDxfId="136"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Rank" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="County" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Publically Owned Lands" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table3578" displayName="Table3578" ref="A1:D38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Table3578" displayName="Table3578" ref="A1:D38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Rank" dataDxfId="8"/>
-    <tableColumn id="2" name="County" dataDxfId="7"/>
-    <tableColumn id="3" name="Mobile Homes" dataDxfId="6"/>
-    <tableColumn id="4" name="Column1" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="Rank" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="County" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="Mobile Homes" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Column1" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table3578[[#This Row],[Mobile Homes]]/100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2575,81 +2696,81 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:C40" totalsRowShown="0" headerRowDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table2" displayName="Table2" ref="A1:C40" totalsRowShown="0" headerRowDxfId="138">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="134"/>
-    <tableColumn id="2" name="County" dataDxfId="133"/>
-    <tableColumn id="3" name="Total Population" dataDxfId="132" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Rank" dataDxfId="137"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="County" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Total Population" dataDxfId="135" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:C38" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table35" displayName="Table35" ref="A1:C38" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="129"/>
-    <tableColumn id="2" name="County" dataDxfId="128"/>
-    <tableColumn id="3" name="Rural Population" dataDxfId="127"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Rank" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="County" dataDxfId="131"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Rural Population" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C40" totalsRowShown="0" headerRowDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table3" displayName="Table3" ref="A1:C40" totalsRowShown="0" headerRowDxfId="129">
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="2"/>
-    <tableColumn id="2" name="County" dataDxfId="1"/>
-    <tableColumn id="3" name="Migration" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Rank" dataDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="County" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Migration" dataDxfId="126" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table357" displayName="Table357" ref="A1:C38" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table357" displayName="Table357" ref="A1:C38" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <sortState ref="A2:C38">
     <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="123"/>
-    <tableColumn id="2" name="County" dataDxfId="122"/>
-    <tableColumn id="3" name="Food Insecurity (2015)" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Rank" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="County" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Food Insecurity (2015)" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table3579101112" displayName="Table3579101112" ref="A1:C40" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table3579101112" displayName="Table3579101112" ref="A1:C40" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="118"/>
-    <tableColumn id="2" name="County" dataDxfId="117"/>
-    <tableColumn id="3" name="Child Poverty" dataDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Rank" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="County" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Child Poverty" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table357813141516171819202122232728" displayName="Table357813141516171819202122232728" ref="A1:C40" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table357813141516171819202122232728" displayName="Table357813141516171819202122232728" ref="A1:C40" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
   <sortState ref="A2:C40">
     <sortCondition descending="1" ref="C2:C40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Rank" dataDxfId="113"/>
-    <tableColumn id="2" name="County" dataDxfId="112"/>
-    <tableColumn id="3" name="Child Abuse" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Rank" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="County" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Child Abuse" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2917,7 +3038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2947,7 +3068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -2980,7 +3101,7 @@
       <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>60.171919799999998</v>
       </c>
     </row>
@@ -3013,7 +3134,7 @@
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>31.6774658</v>
       </c>
     </row>
@@ -3079,7 +3200,7 @@
       <c r="B11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>23.7699468</v>
       </c>
     </row>
@@ -3090,7 +3211,7 @@
       <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>23.618726299999999</v>
       </c>
     </row>
@@ -3112,7 +3233,7 @@
       <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>21.9933893</v>
       </c>
     </row>
@@ -3121,7 +3242,7 @@
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>21.930392999999999</v>
       </c>
     </row>
@@ -3132,7 +3253,7 @@
       <c r="B16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>21.469859599999999</v>
       </c>
     </row>
@@ -3154,7 +3275,7 @@
       <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>21.038961</v>
       </c>
     </row>
@@ -3176,7 +3297,7 @@
       <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>19.136887300000001</v>
       </c>
     </row>
@@ -3198,7 +3319,7 @@
       <c r="B22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>17.835909600000001</v>
       </c>
     </row>
@@ -3220,7 +3341,7 @@
       <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>15.4258887</v>
       </c>
     </row>
@@ -3231,7 +3352,7 @@
       <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>14.7634901</v>
       </c>
     </row>
@@ -3240,7 +3361,7 @@
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>13.625739400000001</v>
       </c>
     </row>
@@ -3251,7 +3372,7 @@
       <c r="B27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>13.6123464</v>
       </c>
     </row>
@@ -3262,7 +3383,7 @@
       <c r="B28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="19">
         <v>12.554499099999999</v>
       </c>
     </row>
@@ -3271,7 +3392,7 @@
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>11.940469999999999</v>
       </c>
     </row>
@@ -3315,7 +3436,7 @@
       <c r="B33" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="19">
         <v>9.0860502400000005</v>
       </c>
     </row>
@@ -3326,7 +3447,7 @@
       <c r="B34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="19">
         <v>8.7309011499999993</v>
       </c>
     </row>
@@ -3337,7 +3458,7 @@
       <c r="B35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="19">
         <v>7.5142407000000002</v>
       </c>
     </row>
@@ -3348,7 +3469,7 @@
       <c r="B36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="19">
         <v>6.7349905899999998</v>
       </c>
     </row>
@@ -3370,7 +3491,7 @@
       <c r="B38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="19">
         <v>6.2602965399999997</v>
       </c>
     </row>
@@ -3381,7 +3502,7 @@
       <c r="B39" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3392,7 +3513,7 @@
       <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3405,7 +3526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -3863,7 +3984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -4303,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -4761,7 +4882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5218,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -5677,11 +5798,361 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9031BA06-EB07-8F4C-BDF1-53D8049B002C}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="17">
+        <v>347.08135612600768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="17">
+        <v>123.30149856355307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="17">
+        <v>100.94622873259939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="17">
+        <v>90.453628220821443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="17">
+        <v>86.341049071374329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="17">
+        <v>68.586721039887863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="17">
+        <v>66.187569731574456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17">
+        <v>64.45461424183091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="17">
+        <v>58.301511961267146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="17">
+        <v>49.519030240815098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="17">
+        <v>48.180407468588875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="17">
+        <v>40.002810090566882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="17">
+        <v>35.156097751101065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="17">
+        <v>34.316217590238942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="17">
+        <v>33.066178294597385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="17">
+        <v>29.599461396954236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="17">
+        <v>23.898035050451409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="17">
+        <v>21.67611188007626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="17">
+        <v>20.572759022118746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="17">
+        <v>17.158395511523747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17">
+        <v>16.435887685678786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="17">
+        <v>10.214464621164684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="17">
+        <v>8.9107850487308546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C40"/>
     </sheetView>
   </sheetViews>
@@ -6112,8 +6583,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -6553,8 +7024,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -7011,466 +7482,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:C40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="14">
-        <v>36.142200000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14">
-        <v>18.393450000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="14">
-        <v>14.95823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="14">
-        <v>13.06977</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="14">
-        <v>10.283250000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="14">
-        <v>10.107670000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14">
-        <v>10.072660000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="14">
-        <v>9.4839870000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="14">
-        <v>8.7365300000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="14">
-        <v>7.492254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="14">
-        <v>7.0131050000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14">
-        <v>6.7711050000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="14">
-        <v>6.633095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="14">
-        <v>6.6156129999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="14">
-        <v>6.5459480000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="14">
-        <v>6.2438719999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="14">
-        <v>6.0019020000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="14">
-        <v>5.8998972728757053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="14">
-        <v>5.7755029999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="14">
-        <v>5.0461299999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="14">
-        <v>4.7276230000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="14">
-        <v>4.6475525714618016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>20</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="14">
-        <v>4.5870660000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>21</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="14">
-        <v>3.890593</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>22</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="14">
-        <v>2.9978790000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>23</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="14">
-        <v>1.6371770000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>24</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="14">
-        <v>0.95919500000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>25</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="14">
-        <v>4.8261999999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>26</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="14">
-        <v>-0.21417</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>27</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="14">
-        <v>-0.27843000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>28</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="14">
-        <v>-0.69291000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>29</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="14">
-        <v>-3.3965200000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>30</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="14">
-        <v>-3.6130100000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>31</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="14">
-        <v>-4.3675899999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>32</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="14">
-        <v>-5.1697600000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>33</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="14">
-        <v>-6.22079</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>34</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="14">
-        <v>-7.4526700000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
-        <v>35</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="14">
-        <v>-9.51647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
-        <v>36</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="14">
-        <v>-19.5792</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -7911,12 +7924,470 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>36.142200000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4">
+        <v>18.393450000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4">
+        <v>14.95823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <v>13.06977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10.283250000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10.107670000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10.072660000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.4839870000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8.7365300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.492254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7.0131050000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6.7711050000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.633095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6.6156129999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.5459480000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6.2438719999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6.0019020000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5.8998972728757053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5.7755029999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5.0461299999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.7276230000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.6475525714618016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4.5870660000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.890593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>22</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.9978790000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>23</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.6371770000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.95919500000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>25</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4.8261999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>26</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="4">
+        <v>-0.21417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>27</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="4">
+        <v>-0.27843000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>28</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="4">
+        <v>-0.69291000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>29</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="4">
+        <v>-3.3965200000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>30</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>-3.6130100000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>31</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="4">
+        <v>-4.3675899999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>32</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="4">
+        <v>-5.1697600000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>33</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="4">
+        <v>-6.22079</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>34</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4">
+        <v>-7.4526700000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>35</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="4">
+        <v>-9.51647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>-19.5792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7944,7 +8415,7 @@
       <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="11">
         <v>4545.9596000000001</v>
       </c>
     </row>
@@ -7955,7 +8426,7 @@
       <c r="B3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="11">
         <v>3892.4791100000002</v>
       </c>
     </row>
@@ -7966,7 +8437,7 @@
       <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="11">
         <v>2707.53512</v>
       </c>
     </row>
@@ -7977,7 +8448,7 @@
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="11">
         <v>2035.11051</v>
       </c>
     </row>
@@ -7988,7 +8459,7 @@
       <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="11">
         <v>1914.35185</v>
       </c>
     </row>
@@ -7999,7 +8470,7 @@
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="11">
         <v>1783.5447999999999</v>
       </c>
     </row>
@@ -8010,7 +8481,7 @@
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="11">
         <v>1763.9029599999999</v>
       </c>
     </row>
@@ -8021,7 +8492,7 @@
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="11">
         <v>1743.93616</v>
       </c>
     </row>
@@ -8032,7 +8503,7 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="11">
         <v>1718.1416400000001</v>
       </c>
     </row>
@@ -8043,7 +8514,7 @@
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="11">
         <v>1632.7110399999999</v>
       </c>
     </row>
@@ -8054,7 +8525,7 @@
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="11">
         <v>1593.2626299999999</v>
       </c>
     </row>
@@ -8065,7 +8536,7 @@
       <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="11">
         <v>1492.1501699999999</v>
       </c>
     </row>
@@ -8074,7 +8545,7 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="11">
         <v>1473.83321</v>
       </c>
     </row>
@@ -8083,7 +8554,7 @@
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="11">
         <v>1427.0933600000001</v>
       </c>
     </row>
@@ -8094,7 +8565,7 @@
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="11">
         <v>1358.21288</v>
       </c>
     </row>
@@ -8105,7 +8576,7 @@
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="11">
         <v>1282.6747600000001</v>
       </c>
     </row>
@@ -8116,7 +8587,7 @@
       <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="11">
         <v>1258.72659</v>
       </c>
     </row>
@@ -8127,7 +8598,7 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="11">
         <v>1226.2765199999999</v>
       </c>
     </row>
@@ -8138,7 +8609,7 @@
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="11">
         <v>1221.7737999999999</v>
       </c>
     </row>
@@ -8147,7 +8618,7 @@
       <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="11">
         <v>1190.7264600000001</v>
       </c>
     </row>
@@ -8158,7 +8629,7 @@
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="11">
         <v>1187.3458700000001</v>
       </c>
     </row>
@@ -8169,7 +8640,7 @@
       <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="11">
         <v>1173.3893599999999</v>
       </c>
     </row>
@@ -8180,7 +8651,7 @@
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="11">
         <v>1155.7924</v>
       </c>
     </row>
@@ -8191,7 +8662,7 @@
       <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="11">
         <v>1149.9095199999999</v>
       </c>
     </row>
@@ -8202,7 +8673,7 @@
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="11">
         <v>1136.05036</v>
       </c>
     </row>
@@ -8213,7 +8684,7 @@
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="11">
         <v>1098.90975</v>
       </c>
     </row>
@@ -8224,7 +8695,7 @@
       <c r="B28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="11">
         <v>1097.32339</v>
       </c>
     </row>
@@ -8235,7 +8706,7 @@
       <c r="B29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="11">
         <v>1075.8407099999999</v>
       </c>
     </row>
@@ -8246,7 +8717,7 @@
       <c r="B30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="11">
         <v>1065.4678799999999</v>
       </c>
     </row>
@@ -8257,7 +8728,7 @@
       <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="11">
         <v>1029.8197299999999</v>
       </c>
     </row>
@@ -8268,7 +8739,7 @@
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="11">
         <v>1019.66637</v>
       </c>
     </row>
@@ -8279,7 +8750,7 @@
       <c r="B33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="11">
         <v>986.909582</v>
       </c>
     </row>
@@ -8290,7 +8761,7 @@
       <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="11">
         <v>969.80874300000005</v>
       </c>
     </row>
@@ -8301,7 +8772,7 @@
       <c r="B35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="11">
         <v>945.11200099999996</v>
       </c>
     </row>
@@ -8312,7 +8783,7 @@
       <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="11">
         <v>938.12312099999997</v>
       </c>
     </row>
@@ -8323,7 +8794,7 @@
       <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="11">
         <v>873.20994599999995</v>
       </c>
     </row>
@@ -8334,7 +8805,7 @@
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="11">
         <v>842.10335599999996</v>
       </c>
     </row>
@@ -8345,7 +8816,7 @@
       <c r="B39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="11">
         <v>754.36051099999997</v>
       </c>
     </row>
@@ -8356,7 +8827,7 @@
       <c r="B40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="11">
         <v>737.88013000000001</v>
       </c>
     </row>
@@ -8368,8 +8839,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -8826,8 +9297,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -9248,8 +9719,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -9681,8 +10152,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -10112,8 +10583,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -10146,7 +10617,7 @@
       <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>78</v>
       </c>
     </row>
@@ -10157,7 +10628,7 @@
       <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>76</v>
       </c>
     </row>
@@ -10168,7 +10639,7 @@
       <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>76</v>
       </c>
     </row>
@@ -10179,7 +10650,7 @@
       <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>74</v>
       </c>
     </row>
@@ -10190,7 +10661,7 @@
       <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>74</v>
       </c>
     </row>
@@ -10201,7 +10672,7 @@
       <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>73</v>
       </c>
     </row>
@@ -10212,7 +10683,7 @@
       <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>73</v>
       </c>
     </row>
@@ -10223,7 +10694,7 @@
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>73</v>
       </c>
     </row>
@@ -10234,7 +10705,7 @@
       <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>73</v>
       </c>
     </row>
@@ -10245,7 +10716,7 @@
       <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <v>73</v>
       </c>
     </row>
@@ -10256,7 +10727,7 @@
       <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="20">
         <v>72</v>
       </c>
     </row>
@@ -10267,7 +10738,7 @@
       <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="20">
         <v>71</v>
       </c>
     </row>
@@ -10278,7 +10749,7 @@
       <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="20">
         <v>71</v>
       </c>
     </row>
@@ -10289,7 +10760,7 @@
       <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="20">
         <v>71</v>
       </c>
     </row>
@@ -10300,7 +10771,7 @@
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="20">
         <v>71</v>
       </c>
     </row>
@@ -10309,7 +10780,7 @@
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="20">
         <v>70</v>
       </c>
     </row>
@@ -10320,7 +10791,7 @@
       <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <v>70</v>
       </c>
     </row>
@@ -10331,7 +10802,7 @@
       <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="20">
         <v>70</v>
       </c>
     </row>
@@ -10342,7 +10813,7 @@
       <c r="B20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="20">
         <v>70</v>
       </c>
     </row>
@@ -10353,7 +10824,7 @@
       <c r="B21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <v>69</v>
       </c>
     </row>
@@ -10364,7 +10835,7 @@
       <c r="B22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="20">
         <v>69</v>
       </c>
     </row>
@@ -10375,7 +10846,7 @@
       <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>69</v>
       </c>
     </row>
@@ -10386,7 +10857,7 @@
       <c r="B24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="20">
         <v>69</v>
       </c>
     </row>
@@ -10397,7 +10868,7 @@
       <c r="B25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="20">
         <v>69</v>
       </c>
     </row>
@@ -10408,7 +10879,7 @@
       <c r="B26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="20">
         <v>68</v>
       </c>
     </row>
@@ -10419,7 +10890,7 @@
       <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="20">
         <v>68</v>
       </c>
     </row>
@@ -10430,7 +10901,7 @@
       <c r="B28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="20">
         <v>68</v>
       </c>
     </row>
@@ -10441,7 +10912,7 @@
       <c r="B29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="20">
         <v>67</v>
       </c>
     </row>
@@ -10452,7 +10923,7 @@
       <c r="B30" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="20">
         <v>65</v>
       </c>
     </row>
@@ -10463,7 +10934,7 @@
       <c r="B31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="20">
         <v>65</v>
       </c>
     </row>
@@ -10474,7 +10945,7 @@
       <c r="B32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="20">
         <v>63</v>
       </c>
     </row>
@@ -10485,7 +10956,7 @@
       <c r="B33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="20">
         <v>61</v>
       </c>
     </row>
@@ -10496,7 +10967,7 @@
       <c r="B34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="20">
         <v>51</v>
       </c>
     </row>
@@ -10505,7 +10976,7 @@
       <c r="B35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10514,7 +10985,7 @@
       <c r="B36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10523,7 +10994,7 @@
       <c r="B37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10532,7 +11003,7 @@
       <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10544,8 +11015,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -11002,8 +11473,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -11460,8 +11931,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -11900,8 +12371,466 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="32">
+        <v>98378.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
+        <v>76753.100000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32">
+        <v>21625.419999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="32">
+        <v>10226.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="32">
+        <v>9929.7000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="32">
+        <v>8358.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="32">
+        <v>6135.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="32">
+        <v>5133.7700000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="32">
+        <v>4721.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="32">
+        <v>4529.2700000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="32">
+        <v>3231.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="32">
+        <v>3151.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="32">
+        <v>3088.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="32">
+        <v>3054.77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="32">
+        <v>2987.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="32">
+        <v>2801.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="32">
+        <v>2395.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>15</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="32">
+        <v>2308.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="32">
+        <v>2048.5100000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="32">
+        <v>2038.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="32">
+        <v>1988.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="32">
+        <v>1882.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>20</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="32">
+        <v>1806.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>21</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="32">
+        <v>1790.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>22</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="32">
+        <v>1715.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>23</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="32">
+        <v>1641.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="32">
+        <v>1332.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="32">
+        <v>1222.8399999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="32">
+        <v>1193.78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>27</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="32">
+        <v>1192.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>28</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="32">
+        <v>1084.3800000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>29</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="32">
+        <v>831.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="32">
+        <v>743.91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>31</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="32">
+        <v>726.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>32</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="32">
+        <v>718.34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>33</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="32">
+        <v>688.33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>34</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="32">
+        <v>678.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>35</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="32">
+        <v>533.19000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="32">
+        <v>465.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11931,7 +12860,7 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>21369100000</v>
       </c>
     </row>
@@ -11940,7 +12869,7 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>15013500000</v>
       </c>
     </row>
@@ -11949,7 +12878,7 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>6355500000</v>
       </c>
     </row>
@@ -11960,7 +12889,7 @@
       <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>3096300000</v>
       </c>
     </row>
@@ -11971,7 +12900,7 @@
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>1892100000</v>
       </c>
     </row>
@@ -11982,7 +12911,7 @@
       <c r="B7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>1821100000</v>
       </c>
     </row>
@@ -11993,7 +12922,7 @@
       <c r="B8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>1807100000</v>
       </c>
     </row>
@@ -12004,7 +12933,7 @@
       <c r="B9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>1612700000</v>
       </c>
     </row>
@@ -12015,7 +12944,7 @@
       <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>1160000000</v>
       </c>
     </row>
@@ -12026,7 +12955,7 @@
       <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>1126500000</v>
       </c>
     </row>
@@ -12037,7 +12966,7 @@
       <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>1005400000</v>
       </c>
     </row>
@@ -12048,7 +12977,7 @@
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>721200000</v>
       </c>
     </row>
@@ -12059,7 +12988,7 @@
       <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>684800000</v>
       </c>
     </row>
@@ -12070,7 +12999,7 @@
       <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <v>507300000</v>
       </c>
     </row>
@@ -12081,7 +13010,7 @@
       <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <v>476500000</v>
       </c>
     </row>
@@ -12092,7 +13021,7 @@
       <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>446000000</v>
       </c>
     </row>
@@ -12103,7 +13032,7 @@
       <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <v>441300000</v>
       </c>
     </row>
@@ -12114,7 +13043,7 @@
       <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>375000000</v>
       </c>
     </row>
@@ -12125,7 +13054,7 @@
       <c r="B20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <v>370200000</v>
       </c>
     </row>
@@ -12136,7 +13065,7 @@
       <c r="B21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <v>362600000</v>
       </c>
     </row>
@@ -12147,7 +13076,7 @@
       <c r="B22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <v>324000000</v>
       </c>
     </row>
@@ -12158,7 +13087,7 @@
       <c r="B23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <v>308800000</v>
       </c>
     </row>
@@ -12169,7 +13098,7 @@
       <c r="B24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <v>298000000</v>
       </c>
     </row>
@@ -12180,7 +13109,7 @@
       <c r="B25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>295900000</v>
       </c>
     </row>
@@ -12191,7 +13120,7 @@
       <c r="B26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <v>261500000</v>
       </c>
     </row>
@@ -12202,7 +13131,7 @@
       <c r="B27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <v>252600000</v>
       </c>
     </row>
@@ -12213,7 +13142,7 @@
       <c r="B28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="22">
         <v>250400000</v>
       </c>
     </row>
@@ -12224,7 +13153,7 @@
       <c r="B29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <v>243000000</v>
       </c>
     </row>
@@ -12235,7 +13164,7 @@
       <c r="B30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <v>211400000</v>
       </c>
     </row>
@@ -12246,7 +13175,7 @@
       <c r="B31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="22">
         <v>199300000</v>
       </c>
     </row>
@@ -12257,7 +13186,7 @@
       <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="22">
         <v>172900000</v>
       </c>
     </row>
@@ -12268,7 +13197,7 @@
       <c r="B33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="22">
         <v>130000000</v>
       </c>
     </row>
@@ -12279,7 +13208,7 @@
       <c r="B34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="22">
         <v>128000000</v>
       </c>
     </row>
@@ -12290,7 +13219,7 @@
       <c r="B35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="22">
         <v>111500000</v>
       </c>
     </row>
@@ -12301,7 +13230,7 @@
       <c r="B36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="22">
         <v>84600000</v>
       </c>
     </row>
@@ -12312,7 +13241,7 @@
       <c r="B37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="22">
         <v>68800000</v>
       </c>
     </row>
@@ -12323,7 +13252,7 @@
       <c r="B38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="22">
         <v>59000000</v>
       </c>
     </row>
@@ -12334,7 +13263,7 @@
       <c r="B39" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="22">
         <v>42700000</v>
       </c>
     </row>
@@ -12345,7 +13274,7 @@
       <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="22">
         <v>20500000</v>
       </c>
     </row>
@@ -12357,466 +13286,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="24">
-        <v>98378.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24">
-        <v>76753.100000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="24">
-        <v>21625.419999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="24">
-        <v>10226.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="24">
-        <v>9929.7000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="24">
-        <v>8358.26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>4</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="24">
-        <v>6135.55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="24">
-        <v>5133.7700000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>6</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="24">
-        <v>4721.87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>7</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="24">
-        <v>4529.2700000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>8</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="24">
-        <v>3231.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>9</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="24">
-        <v>3151.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="24">
-        <v>3088.37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>11</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="24">
-        <v>3054.77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>12</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="24">
-        <v>2987.27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="24">
-        <v>2801.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>14</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="24">
-        <v>2395.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>15</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="24">
-        <v>2308.96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>16</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="24">
-        <v>2048.5100000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>17</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="24">
-        <v>2038.53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>18</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="24">
-        <v>1988.34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
-        <v>19</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="24">
-        <v>1882.61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
-        <v>20</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="24">
-        <v>1806.36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
-        <v>21</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="24">
-        <v>1790.91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
-        <v>22</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="24">
-        <v>1715.23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
-        <v>23</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="24">
-        <v>1641.85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
-        <v>24</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="24">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
-        <v>25</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="24">
-        <v>1222.8399999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
-        <v>26</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="24">
-        <v>1193.78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
-        <v>27</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="24">
-        <v>1192.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
-        <v>28</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="24">
-        <v>1084.3800000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
-        <v>29</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="24">
-        <v>831.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
-        <v>30</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="24">
-        <v>743.91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
-        <v>31</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="24">
-        <v>726.42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
-        <v>32</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="24">
-        <v>718.34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>33</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="24">
-        <v>688.33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>34</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="24">
-        <v>678.61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
-        <v>35</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="24">
-        <v>533.19000000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
-        <v>36</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="24">
-        <v>465.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:E38"/>
   <sheetViews>
@@ -13292,8 +13763,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:F38"/>
   <sheetViews>
@@ -13318,7 +13789,7 @@
       <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>77</v>
       </c>
     </row>
@@ -13332,7 +13803,7 @@
       <c r="C2" s="4">
         <v>29.3</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.29299999999999998</v>
       </c>
@@ -13347,7 +13818,7 @@
       <c r="C3" s="4">
         <v>26.7</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.26700000000000002</v>
       </c>
@@ -13362,7 +13833,7 @@
       <c r="C4" s="4">
         <v>25.9</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.25900000000000001</v>
       </c>
@@ -13377,7 +13848,7 @@
       <c r="C5" s="4">
         <v>24.1</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.24100000000000002</v>
       </c>
@@ -13392,7 +13863,7 @@
       <c r="C6" s="4">
         <v>23.6</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.23600000000000002</v>
       </c>
@@ -13407,7 +13878,7 @@
       <c r="C7" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.19899999999999998</v>
       </c>
@@ -13419,10 +13890,10 @@
       <c r="B8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>19.5</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.19500000000000001</v>
       </c>
@@ -13437,7 +13908,7 @@
       <c r="C9" s="4">
         <v>19.399999999999999</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.19399999999999998</v>
       </c>
@@ -13452,7 +13923,7 @@
       <c r="C10" s="4">
         <v>19.2</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.192</v>
       </c>
@@ -13467,7 +13938,7 @@
       <c r="C11" s="4">
         <v>17.3</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.17300000000000001</v>
       </c>
@@ -13485,7 +13956,7 @@
       <c r="C12" s="4">
         <v>17.2</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.17199999999999999</v>
       </c>
@@ -13500,7 +13971,7 @@
       <c r="C13" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.16899999999999998</v>
       </c>
@@ -13515,7 +13986,7 @@
       <c r="C14" s="4">
         <v>16.5</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.16500000000000001</v>
       </c>
@@ -13530,7 +14001,7 @@
       <c r="C15" s="4">
         <v>15.5</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.155</v>
       </c>
@@ -13545,7 +14016,7 @@
       <c r="C16" s="4">
         <v>15.2</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.152</v>
       </c>
@@ -13557,10 +14028,10 @@
       <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>15.2</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.152</v>
       </c>
@@ -13575,7 +14046,7 @@
       <c r="C18" s="4">
         <v>15.1</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.151</v>
       </c>
@@ -13590,7 +14061,7 @@
       <c r="C19" s="4">
         <v>14.9</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.14899999999999999</v>
       </c>
@@ -13605,7 +14076,7 @@
       <c r="C20" s="4">
         <v>14.7</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.14699999999999999</v>
       </c>
@@ -13620,7 +14091,7 @@
       <c r="C21" s="4">
         <v>13.9</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.13900000000000001</v>
       </c>
@@ -13635,7 +14106,7 @@
       <c r="C22" s="4">
         <v>13.8</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.13800000000000001</v>
       </c>
@@ -13650,7 +14121,7 @@
       <c r="C23" s="4">
         <v>13.7</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.13699999999999998</v>
       </c>
@@ -13665,7 +14136,7 @@
       <c r="C24" s="4">
         <v>13.5</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.13500000000000001</v>
       </c>
@@ -13680,7 +14151,7 @@
       <c r="C25" s="4">
         <v>11.8</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.11800000000000001</v>
       </c>
@@ -13695,7 +14166,7 @@
       <c r="C26" s="4">
         <v>11.2</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.11199999999999999</v>
       </c>
@@ -13710,7 +14181,7 @@
       <c r="C27" s="4">
         <v>11.1</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.111</v>
       </c>
@@ -13722,10 +14193,10 @@
       <c r="B28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="19">
         <v>10.5</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.105</v>
       </c>
@@ -13740,7 +14211,7 @@
       <c r="C29" s="4">
         <v>9</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>0.09</v>
       </c>
@@ -13755,7 +14226,7 @@
       <c r="C30" s="4">
         <v>8.9</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>8.900000000000001E-2</v>
       </c>
@@ -13768,7 +14239,7 @@
       <c r="C31" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>8.3000000000000004E-2</v>
       </c>
@@ -13783,7 +14254,7 @@
       <c r="C32" s="4">
         <v>7.4</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>7.400000000000001E-2</v>
       </c>
@@ -13798,7 +14269,7 @@
       <c r="C33" s="4">
         <v>7</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -13813,7 +14284,7 @@
       <c r="C34" s="4">
         <v>6.6</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>6.6000000000000003E-2</v>
       </c>
@@ -13828,7 +14299,7 @@
       <c r="C35" s="4">
         <v>6.4</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>6.4000000000000001E-2</v>
       </c>
@@ -13843,7 +14314,7 @@
       <c r="C36" s="4">
         <v>5.4</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>5.4000000000000006E-2</v>
       </c>
@@ -13855,10 +14326,10 @@
       <c r="B37" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="19">
         <v>2.5</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -13873,7 +14344,7 @@
       <c r="C38" s="4">
         <v>1.9</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="24">
         <f>Table3578[[#This Row],[Mobile Homes]]/100</f>
         <v>1.9E-2</v>
       </c>
@@ -13887,12 +14358,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet26"/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13902,7 +14373,7 @@
     <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -13913,7 +14384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -13923,8 +14394,9 @@
       <c r="C2" s="14">
         <v>78.355707815542033</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -13934,8 +14406,9 @@
       <c r="C3" s="14">
         <v>77.926589477759293</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -13945,8 +14418,9 @@
       <c r="C4" s="14">
         <v>77.414168200099766</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -13956,8 +14430,9 @@
       <c r="C5" s="14">
         <v>75.26880403887337</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -13967,8 +14442,9 @@
       <c r="C6" s="14">
         <v>74.85071479984974</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -13978,8 +14454,9 @@
       <c r="C7" s="14">
         <v>73.017216646613605</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -13989,8 +14466,9 @@
       <c r="C8" s="14">
         <v>68.047195755508298</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -14000,8 +14478,9 @@
       <c r="C9" s="14">
         <v>61.707491523668303</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -14011,8 +14490,9 @@
       <c r="C10" s="14">
         <v>60.223895545325448</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -14022,8 +14502,9 @@
       <c r="C11" s="14">
         <v>58.805783081217363</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -14033,8 +14514,9 @@
       <c r="C12" s="14">
         <v>58.533234787044378</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
         <v>1</v>
@@ -14042,8 +14524,9 @@
       <c r="C13" s="14">
         <v>57.790037847433204</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
         <v>3</v>
@@ -14051,8 +14534,9 @@
       <c r="C14" s="14">
         <v>56.058544621560294</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -14062,8 +14546,9 @@
       <c r="C15" s="14">
         <v>54.905191350073956</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -14073,8 +14558,9 @@
       <c r="C16" s="14">
         <v>54.470087861510265</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -14084,8 +14570,9 @@
       <c r="C17" s="14">
         <v>52.221494053202264</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -14095,8 +14582,9 @@
       <c r="C18" s="14">
         <v>52.114004500811731</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -14106,8 +14594,9 @@
       <c r="C19" s="14">
         <v>51.693584415888886</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -14117,8 +14606,9 @@
       <c r="C20" s="14">
         <v>50.838600788498688</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -14128,8 +14618,9 @@
       <c r="C21" s="14">
         <v>50.454356868051221</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="5" t="s">
         <v>2</v>
@@ -14137,8 +14628,9 @@
       <c r="C22" s="14">
         <v>49.913167951703514</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -14148,8 +14640,9 @@
       <c r="C23" s="14">
         <v>48.697066698185154</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>20</v>
       </c>
@@ -14159,8 +14652,9 @@
       <c r="C24" s="14">
         <v>43.85208620276326</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>21</v>
       </c>
@@ -14170,8 +14664,9 @@
       <c r="C25" s="14">
         <v>39.640499135086493</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>22</v>
       </c>
@@ -14181,8 +14676,9 @@
       <c r="C26" s="14">
         <v>35.968818317692566</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -14192,8 +14688,9 @@
       <c r="C27" s="14">
         <v>34.596024177151548</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -14203,8 +14700,9 @@
       <c r="C28" s="14">
         <v>29.181184217636797</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -14214,8 +14712,9 @@
       <c r="C29" s="14">
         <v>29.010942012499196</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -14225,8 +14724,9 @@
       <c r="C30" s="14">
         <v>28.811235369341276</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -14236,8 +14736,9 @@
       <c r="C31" s="14">
         <v>26.688701711784411</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -14247,8 +14748,9 @@
       <c r="C32" s="14">
         <v>26.407519487020529</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -14258,8 +14760,9 @@
       <c r="C33" s="14">
         <v>24.430454107460186</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -14269,8 +14772,9 @@
       <c r="C34" s="14">
         <v>16.719231242079758</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -14280,8 +14784,9 @@
       <c r="C35" s="14">
         <v>16.50707975451224</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -14291,8 +14796,9 @@
       <c r="C36" s="14">
         <v>14.790450691395627</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -14302,8 +14808,9 @@
       <c r="C37" s="14">
         <v>12.250348664298905</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -14313,8 +14820,9 @@
       <c r="C38" s="14">
         <v>11.876000546007841</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -14324,8 +14832,9 @@
       <c r="C39" s="14">
         <v>8.3886278296605852</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -14335,6 +14844,7 @@
       <c r="C40" s="14">
         <v>7.9838062828449825</v>
       </c>
+      <c r="D40" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14346,18 +14856,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -14367,7 +14877,7 @@
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -14376,7 +14886,7 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="31">
         <v>3982267</v>
       </c>
     </row>
@@ -14385,7 +14895,7 @@
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="31">
         <v>2743636</v>
       </c>
     </row>
@@ -14394,7 +14904,7 @@
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="31">
         <v>1238631</v>
       </c>
     </row>
@@ -14405,7 +14915,7 @@
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="31">
         <v>778193</v>
       </c>
     </row>
@@ -14416,7 +14926,7 @@
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="31">
         <v>564088</v>
       </c>
     </row>
@@ -14427,7 +14937,7 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="31">
         <v>394967</v>
       </c>
     </row>
@@ -14438,7 +14948,7 @@
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="31">
         <v>360273</v>
       </c>
     </row>
@@ -14449,7 +14959,7 @@
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="31">
         <v>326527</v>
       </c>
     </row>
@@ -14460,7 +14970,7 @@
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="31">
         <v>210916</v>
       </c>
     </row>
@@ -14471,7 +14981,7 @@
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="31">
         <v>170813</v>
       </c>
     </row>
@@ -14482,7 +14992,7 @@
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="31">
         <v>119862</v>
       </c>
     </row>
@@ -14493,7 +15003,7 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="31">
         <v>107375</v>
       </c>
     </row>
@@ -14504,7 +15014,7 @@
       <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="31">
         <v>102217</v>
       </c>
     </row>
@@ -14515,7 +15025,7 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="31">
         <v>87455</v>
       </c>
     </row>
@@ -14526,7 +15036,7 @@
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="31">
         <v>84063</v>
       </c>
     </row>
@@ -14537,7 +15047,7 @@
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="31">
         <v>78470</v>
       </c>
     </row>
@@ -14548,7 +15058,7 @@
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="31">
         <v>76582</v>
       </c>
     </row>
@@ -14559,7 +15069,7 @@
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="31">
         <v>65946</v>
       </c>
     </row>
@@ -14570,7 +15080,7 @@
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="31">
         <v>62944</v>
       </c>
     </row>
@@ -14581,7 +15091,7 @@
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="31">
         <v>49645</v>
       </c>
     </row>
@@ -14592,7 +15102,7 @@
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="31">
         <v>46685</v>
       </c>
     </row>
@@ -14603,7 +15113,7 @@
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="31">
         <v>37660</v>
       </c>
     </row>
@@ -14614,7 +15124,7 @@
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="31">
         <v>30474</v>
       </c>
     </row>
@@ -14625,7 +15135,7 @@
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="31">
         <v>25758</v>
       </c>
     </row>
@@ -14636,7 +15146,7 @@
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="31">
         <v>25657</v>
       </c>
     </row>
@@ -14647,7 +15157,7 @@
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="31">
         <v>25552</v>
       </c>
     </row>
@@ -14658,7 +15168,7 @@
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="31">
         <v>22842</v>
       </c>
     </row>
@@ -14669,7 +15179,7 @@
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="31">
         <v>22364</v>
       </c>
     </row>
@@ -14680,7 +15190,7 @@
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="31">
         <v>22305</v>
       </c>
     </row>
@@ -14691,7 +15201,7 @@
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="31">
         <v>21334</v>
       </c>
     </row>
@@ -14702,7 +15212,7 @@
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="31">
         <v>16030</v>
       </c>
     </row>
@@ -14713,7 +15223,7 @@
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="31">
         <v>11207</v>
       </c>
     </row>
@@ -14724,7 +15234,7 @@
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="31">
         <v>7799</v>
       </c>
     </row>
@@ -14735,7 +15245,7 @@
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="31">
         <v>7227</v>
       </c>
     </row>
@@ -14746,7 +15256,7 @@
       <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="31">
         <v>7214</v>
       </c>
     </row>
@@ -14757,7 +15267,7 @@
       <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="31">
         <v>6836</v>
       </c>
     </row>
@@ -14768,7 +15278,7 @@
       <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="31">
         <v>1913</v>
       </c>
     </row>
@@ -14779,7 +15289,7 @@
       <c r="B39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="31">
         <v>1705</v>
       </c>
     </row>
@@ -14790,7 +15300,7 @@
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="31">
         <v>1369</v>
       </c>
     </row>
@@ -14804,7 +15314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -15244,11 +15754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -15271,425 +15781,425 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="29">
         <v>98.815357680509038</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="30">
         <v>72.136112577697673</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>63.21453842535486</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <v>60.808233706452214</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>59.751884544893549</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="30">
         <v>59.227781004955425</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <v>54.562137434764189</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="30">
         <v>53.848793844083374</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="29">
         <v>52.529220250823492</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="30">
         <v>51.82613498609075</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="29">
         <v>49.560149040655325</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="30">
         <v>48.538874418372686</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="29">
         <v>46.063509957217164</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="30">
         <v>43.471619118449475</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
+      <c r="A16" s="25">
         <v>13</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="29">
         <v>43.065156602292845</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="27">
         <v>14</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="30">
         <v>42.246740858074133</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>15</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="29">
         <v>40.903612625040175</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="27">
         <v>16</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="30">
         <v>40.499996322426817</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
+      <c r="A20" s="25">
         <v>17</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="29">
         <v>40.493440995019782</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="27">
         <v>18</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="30">
         <v>38.181655495343286</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>19</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="29">
         <v>38.180093453868963</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="27">
         <v>20</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="30">
         <v>36.065250872231601</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
+      <c r="A24" s="25">
         <v>21</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="29">
         <v>34.647349091683864</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+      <c r="A25" s="27">
         <v>22</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="30">
         <v>33.738155415570851</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="29">
         <v>30.608606792626912</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="27">
         <v>23</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="30">
         <v>27.978237136677485</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
+      <c r="A28" s="25">
         <v>24</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="29">
         <v>26.383758954470352</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="27">
         <v>25</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="30">
         <v>26.211847391420442</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="27">
+      <c r="A30" s="25">
         <v>26</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="29">
         <v>25.979801411426944</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="A31" s="27">
         <v>27</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="30">
         <v>24.091264680868296</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="27">
+      <c r="A32" s="25">
         <v>28</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="29">
         <v>23.553012117419993</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
+      <c r="A33" s="27">
         <v>29</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="30">
         <v>18.664393898864464</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="27">
+      <c r="A34" s="25">
         <v>30</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="29">
         <v>17.193510493220604</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
+      <c r="A35" s="27">
         <v>31</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="30">
         <v>15.123338589376297</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="27">
+      <c r="A36" s="25">
         <v>32</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="29">
         <v>12.95096466042868</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
+      <c r="A37" s="27">
         <v>33</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="30">
         <v>8.4321004888660429</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="27">
+      <c r="A38" s="25">
         <v>34</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="29">
         <v>4.0882292933683457</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="29">
+      <c r="A39" s="27">
         <v>35</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="30">
         <v>-9.4118828747758378</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="27">
+      <c r="A40" s="25">
         <v>36</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="29">
         <v>-14.018495407485894</v>
       </c>
     </row>
@@ -15705,7 +16215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:E38"/>
   <sheetViews>
@@ -16183,7 +16693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
